--- a/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>27335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15743</v>
+        <v>13813</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46862</v>
+        <v>47219</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06703092384933028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03860561912601331</v>
+        <v>0.03387211390287477</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1149154315545877</v>
+        <v>0.1157920263564325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>23067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11891</v>
+        <v>12398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40152</v>
+        <v>42083</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06363030183259662</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03280050951703987</v>
+        <v>0.03420104108664183</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1107613622880109</v>
+        <v>0.1160883078227889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -783,19 +783,19 @@
         <v>50401</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33571</v>
+        <v>32453</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76203</v>
+        <v>72683</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06543056276743844</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0435814306634261</v>
+        <v>0.04213043000656531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09892526568890225</v>
+        <v>0.09435624580654789</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19355</v>
+        <v>16661</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01356273956275975</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04746328246096586</v>
+        <v>0.04085548799302213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>4552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12223</v>
+        <v>14038</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01255636442199621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002802536756555021</v>
+        <v>0.002830878789872023</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.033716404260619</v>
+        <v>0.03872420624677269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>10083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2948</v>
+        <v>2872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23468</v>
+        <v>22750</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01308913102845745</v>
+        <v>0.01308913102845744</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003826788051136895</v>
+        <v>0.003728842973223966</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03046601938324874</v>
+        <v>0.02953332628769863</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>13326</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4680</v>
+        <v>5100</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28073</v>
+        <v>32028</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0326794759028454</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01147654230185567</v>
+        <v>0.01250747327041945</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06884194114198665</v>
+        <v>0.0785387994259556</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15520</v>
+        <v>15208</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01094006547377827</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04281353143789042</v>
+        <v>0.04195262661930972</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -925,19 +925,19 @@
         <v>17292</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7366</v>
+        <v>6552</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33679</v>
+        <v>33672</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.02244872805061296</v>
+        <v>0.02244872805061295</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009561924591385934</v>
+        <v>0.00850544379923973</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04372128995435045</v>
+        <v>0.04371246202628827</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>10223</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3159</v>
+        <v>3254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30348</v>
+        <v>29308</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02506911402200704</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007746157517306527</v>
+        <v>0.00797897864704745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07442114822609382</v>
+        <v>0.07187020515962329</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -975,19 +975,19 @@
         <v>10327</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3850</v>
+        <v>3435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23864</v>
+        <v>21991</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02848731130209471</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01062062074832051</v>
+        <v>0.00947507980078888</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06582870323456329</v>
+        <v>0.06066193981131697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -996,19 +996,19 @@
         <v>20550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9298</v>
+        <v>9052</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41973</v>
+        <v>38541</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02667774616940904</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01207009920526824</v>
+        <v>0.0117508809126763</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05448829465507993</v>
+        <v>0.05003316204877464</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>13975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3572</v>
+        <v>3540</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34652</v>
+        <v>31587</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03426869361405223</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008758535023469282</v>
+        <v>0.008681843276869172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0849755648604002</v>
+        <v>0.07745941313015854</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1046,19 +1046,19 @@
         <v>11260</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4229</v>
+        <v>4465</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22862</v>
+        <v>23308</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03106032190174458</v>
+        <v>0.03106032190174457</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01166490783033665</v>
+        <v>0.01231657833040601</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06306485541600601</v>
+        <v>0.06429586310762708</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1067,19 +1067,19 @@
         <v>25234</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10851</v>
+        <v>12074</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46121</v>
+        <v>47442</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03275880712876987</v>
+        <v>0.03275880712876986</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01408643166735098</v>
+        <v>0.01567492633341512</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05987377892066233</v>
+        <v>0.06158855202882002</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>337403</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>308563</v>
+        <v>305995</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>358078</v>
+        <v>360389</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8273890530490055</v>
+        <v>0.8273890530490053</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7566648264300175</v>
+        <v>0.7503693477061766</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8780868647739483</v>
+        <v>0.8837545875942094</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>180</v>
@@ -1117,19 +1117,19 @@
         <v>309341</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>289105</v>
+        <v>285143</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>325234</v>
+        <v>324734</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8533256350677896</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7975058692911673</v>
+        <v>0.7865754348424177</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8971681477322123</v>
+        <v>0.8957872958588079</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>326</v>
@@ -1138,19 +1138,19 @@
         <v>646744</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>613863</v>
+        <v>614310</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>677042</v>
+        <v>676098</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.8395950248553122</v>
+        <v>0.8395950248553121</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7969089574811671</v>
+        <v>0.7974890616451208</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8789275140749575</v>
+        <v>0.8777020048164377</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>18663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9455</v>
+        <v>8732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34185</v>
+        <v>33741</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03924017138826331</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01988010136169857</v>
+        <v>0.01835918791598446</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07187689064455643</v>
+        <v>0.07094330528595737</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -1263,19 +1263,19 @@
         <v>21820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14098</v>
+        <v>14141</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34009</v>
+        <v>34566</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04354570481926491</v>
+        <v>0.0435457048192649</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02813416733387225</v>
+        <v>0.02822065493135094</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06787098536335985</v>
+        <v>0.06898252864110414</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -1284,19 +1284,19 @@
         <v>40483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28283</v>
+        <v>27557</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57208</v>
+        <v>58256</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04144908541358147</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02895831624273234</v>
+        <v>0.02821462929633129</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05857282873213335</v>
+        <v>0.05964597700816338</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>7230</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1623</v>
+        <v>1645</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17844</v>
+        <v>17687</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0152005730808134</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003412904258014773</v>
+        <v>0.003457977702693227</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0375186120567601</v>
+        <v>0.03718867213654648</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1334,19 +1334,19 @@
         <v>3048</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8283</v>
+        <v>7408</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006082701265532564</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00172487205295232</v>
+        <v>0.00169774102715091</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01652944470566085</v>
+        <v>0.01478366789132372</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1355,19 +1355,19 @@
         <v>10277</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4207</v>
+        <v>4060</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21365</v>
+        <v>21832</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01052273344570419</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004307290593005135</v>
+        <v>0.004156971198122872</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02187445653384581</v>
+        <v>0.02235251920285198</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>5808</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1576</v>
+        <v>1276</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14422</v>
+        <v>13961</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01221260338922</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003313559402278898</v>
+        <v>0.002682490113671818</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03032404598758859</v>
+        <v>0.02935485237851277</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1405,19 +1405,19 @@
         <v>6626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2187</v>
+        <v>2352</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14120</v>
+        <v>15757</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01322312569145557</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004364627573885544</v>
+        <v>0.004694023594300891</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02817851710757633</v>
+        <v>0.0314465863284782</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1426,19 +1426,19 @@
         <v>12434</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6168</v>
+        <v>6423</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22822</v>
+        <v>25102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01273104249138386</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006315163892294047</v>
+        <v>0.006576057825089691</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02336639511485456</v>
+        <v>0.02570058355195252</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>16960</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8402</v>
+        <v>7873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32385</v>
+        <v>31059</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03565936433039968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01766524347467303</v>
+        <v>0.01655432767324435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06809228281883524</v>
+        <v>0.06530353865615536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1476,19 +1476,19 @@
         <v>7753</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3478</v>
+        <v>3469</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16855</v>
+        <v>16572</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01547315791943413</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006940690880682625</v>
+        <v>0.006922771679713158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03363629200118503</v>
+        <v>0.03307141206661837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1497,19 +1497,19 @@
         <v>24713</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14976</v>
+        <v>13791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39867</v>
+        <v>39770</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02530301820657542</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01533345298116491</v>
+        <v>0.01412026345364038</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04081867510067515</v>
+        <v>0.04071908552899777</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>14007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5723</v>
+        <v>5685</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26560</v>
+        <v>28599</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02945102743760545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01203296843068216</v>
+        <v>0.0119535537041753</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0558444399394638</v>
+        <v>0.06013173010892936</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10855</v>
+        <v>9648</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.005569341850123079</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02166334274482782</v>
+        <v>0.01925477413249031</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -1568,19 +1568,19 @@
         <v>16798</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7581</v>
+        <v>8776</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>32073</v>
+        <v>33615</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0171987499700591</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007761437689795495</v>
+        <v>0.00898554048236113</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03283860741617803</v>
+        <v>0.0344170537428523</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>412941</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>390155</v>
+        <v>391773</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>430503</v>
+        <v>431356</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8682362603736982</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8203275403058157</v>
+        <v>0.82372880543703</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9051615571029376</v>
+        <v>0.9069543825261978</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>422</v>
@@ -1618,19 +1618,19 @@
         <v>459045</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>445320</v>
+        <v>443724</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>471015</v>
+        <v>470738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9161059684541897</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.888715885225082</v>
+        <v>0.8855297483511479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9399931905734011</v>
+        <v>0.9394404053279064</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>687</v>
@@ -1639,19 +1639,19 @@
         <v>871986</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>845751</v>
+        <v>843646</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>893518</v>
+        <v>893959</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.892795370472696</v>
+        <v>0.8927953704726959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8659340067108616</v>
+        <v>0.8637792421471649</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9148406310091289</v>
+        <v>0.9152928410719193</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>23835</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15992</v>
+        <v>15757</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36231</v>
+        <v>35144</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03846484634052449</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02580743212734094</v>
+        <v>0.02542821798912424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05846995112918048</v>
+        <v>0.05671538941436129</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -1764,19 +1764,19 @@
         <v>22414</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15938</v>
+        <v>15653</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30989</v>
+        <v>31242</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03616466924033665</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02571604312190343</v>
+        <v>0.02525523760706929</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04999927682213881</v>
+        <v>0.05040736051325595</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -1785,19 +1785,19 @@
         <v>46249</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33272</v>
+        <v>35201</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59802</v>
+        <v>60784</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03731463937821314</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02684412492634616</v>
+        <v>0.02840089604134538</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04824861371148281</v>
+        <v>0.04904107233749046</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>8212</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3420</v>
+        <v>3351</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16354</v>
+        <v>17497</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0132521732524941</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005518408714900759</v>
+        <v>0.005407596878508124</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02639117589050226</v>
+        <v>0.028235906223089</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1835,19 +1835,19 @@
         <v>6588</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3410</v>
+        <v>2852</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12989</v>
+        <v>11801</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01063009917505488</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005501411703546346</v>
+        <v>0.004601575260711185</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02095669043135366</v>
+        <v>0.01904002754039742</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1856,19 +1856,19 @@
         <v>14800</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8461</v>
+        <v>8667</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24364</v>
+        <v>24467</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01194100123042658</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006826792390076158</v>
+        <v>0.006992876301030086</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01965683143472377</v>
+        <v>0.01974016091886473</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>12124</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5834</v>
+        <v>5876</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21168</v>
+        <v>21919</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01956640519459573</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009415473404622685</v>
+        <v>0.009482871799499974</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03416011649819905</v>
+        <v>0.03537268015636347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1906,19 +1906,19 @@
         <v>5284</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2266</v>
+        <v>2287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10374</v>
+        <v>10599</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00852491665992699</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003655906944498944</v>
+        <v>0.003690581976220274</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01673786494245316</v>
+        <v>0.01710145537337129</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1927,19 +1927,19 @@
         <v>17408</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10575</v>
+        <v>10312</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27279</v>
+        <v>27693</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01404509251575038</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008532402409828346</v>
+        <v>0.008320026918857056</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02200912700287622</v>
+        <v>0.02234283076491847</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>5740</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2248</v>
+        <v>2093</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12734</v>
+        <v>12935</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.009262431442676217</v>
+        <v>0.009262431442676215</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003627387003670193</v>
+        <v>0.003377115487801834</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02054978662969852</v>
+        <v>0.0208742851225694</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1977,19 +1977,19 @@
         <v>2834</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7550</v>
+        <v>7079</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.004573043246640795</v>
+        <v>0.004573043246640796</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001254463438186963</v>
+        <v>0.001279958313967663</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01218154914192144</v>
+        <v>0.01142123356171627</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1998,19 +1998,19 @@
         <v>8574</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4012</v>
+        <v>3883</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15532</v>
+        <v>16205</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.006917495936788387</v>
+        <v>0.006917495936788388</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003237298851686652</v>
+        <v>0.003132935278767571</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01253174226625029</v>
+        <v>0.0130745786118624</v>
       </c>
     </row>
     <row r="22">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7017</v>
+        <v>7421</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002256859351776749</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01132429536272704</v>
+        <v>0.01197583315849436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5495</v>
+        <v>4065</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001307775509307147</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00886614391622177</v>
+        <v>0.006558423230047152</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7168</v>
+        <v>8006</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001782268572076964</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005783193704797935</v>
+        <v>0.006459220952576362</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>568350</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>553136</v>
+        <v>551944</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>581309</v>
+        <v>580961</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9171972844179329</v>
+        <v>0.9171972844179327</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8926463953142769</v>
+        <v>0.8907224517929273</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9381117907197994</v>
+        <v>0.9375497538138294</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>787</v>
@@ -2119,19 +2119,19 @@
         <v>581856</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>571587</v>
+        <v>570878</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>591461</v>
+        <v>590630</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9387994961687337</v>
+        <v>0.9387994961687335</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9222310258149556</v>
+        <v>0.9210878159073089</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9542973338015794</v>
+        <v>0.9529559193515311</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1285</v>
@@ -2140,19 +2140,19 @@
         <v>1150204</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1131663</v>
+        <v>1130664</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1167040</v>
+        <v>1166332</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9279995023667446</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9130404109336731</v>
+        <v>0.912234075710847</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9415830296732777</v>
+        <v>0.9410116662800547</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>26727</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18175</v>
+        <v>17301</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38176</v>
+        <v>38959</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03845885754315878</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02615195575741585</v>
+        <v>0.02489492317143983</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05493204791678728</v>
+        <v>0.05605961690319006</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2265,19 +2265,19 @@
         <v>21153</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15183</v>
+        <v>15080</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28577</v>
+        <v>28841</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02876104756236305</v>
+        <v>0.02876104756236306</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02064395057653313</v>
+        <v>0.02050322195421598</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03885445892371942</v>
+        <v>0.03921360696175006</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -2286,19 +2286,19 @@
         <v>47881</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36436</v>
+        <v>36508</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60759</v>
+        <v>61288</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03347261114248485</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02547178460440335</v>
+        <v>0.02552233226556557</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04247542431455441</v>
+        <v>0.04284558121078162</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>9542</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4310</v>
+        <v>4198</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18590</v>
+        <v>18039</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0137308537964556</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006201723708962195</v>
+        <v>0.006040973315206875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02674970797790828</v>
+        <v>0.02595717620899419</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2336,19 +2336,19 @@
         <v>10043</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5556</v>
+        <v>5770</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16025</v>
+        <v>16229</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01365482587866182</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007554064974351636</v>
+        <v>0.007845670814291911</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02178852050554866</v>
+        <v>0.02206576047631487</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -2357,19 +2357,19 @@
         <v>19585</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12715</v>
+        <v>12840</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29636</v>
+        <v>29464</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01369176312214865</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008889134613576721</v>
+        <v>0.008976124125116577</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02071773674655538</v>
+        <v>0.02059816658886178</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>3488</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9328</v>
+        <v>9332</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.005019251816990962</v>
+        <v>0.005019251816990963</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.001644315436523601</v>
+        <v>0.001642494253816913</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01342197846809226</v>
+        <v>0.01342794799951599</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -2407,19 +2407,19 @@
         <v>6627</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3363</v>
+        <v>3288</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11956</v>
+        <v>11158</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.009010383002143466</v>
+        <v>0.009010383002143468</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.004572635790372502</v>
+        <v>0.004470709850313131</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01625556592279192</v>
+        <v>0.01517091659276174</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>14</v>
@@ -2428,19 +2428,19 @@
         <v>10115</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5457</v>
+        <v>5752</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17415</v>
+        <v>17729</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.007071340231384835</v>
+        <v>0.007071340231384836</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.003814720803989096</v>
+        <v>0.00402133434790408</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01217444323978863</v>
+        <v>0.01239401188780906</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>10070</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4829</v>
+        <v>4898</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18340</v>
+        <v>19204</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01449041253176627</v>
+        <v>0.01449041253176626</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006948237637589875</v>
+        <v>0.007048110150532745</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02638961603459687</v>
+        <v>0.02763354714287484</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2478,19 +2478,19 @@
         <v>2214</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5864</v>
+        <v>5939</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.003009953434561717</v>
+        <v>0.003009953434561718</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0009587871337893275</v>
+        <v>0.0009543240158535402</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.007972728972903397</v>
+        <v>0.00807483018854426</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -2499,19 +2499,19 @@
         <v>12284</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6698</v>
+        <v>6105</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20988</v>
+        <v>21951</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.008587595507625785</v>
+        <v>0.008587595507625787</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004682466549525047</v>
+        <v>0.004267670281728163</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01467243262042429</v>
+        <v>0.01534527430230566</v>
       </c>
     </row>
     <row r="29">
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5711</v>
+        <v>5750</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.001641606785521355</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.008217798077225946</v>
+        <v>0.008273463189260106</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2549,19 +2549,19 @@
         <v>3317</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1224</v>
+        <v>1193</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7787</v>
+        <v>7214</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004510400380089129</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001664479200320486</v>
+        <v>0.001621602842566129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01058741860738672</v>
+        <v>0.009809176105975322</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2570,19 +2570,19 @@
         <v>4458</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1854</v>
+        <v>1913</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9990</v>
+        <v>9641</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.003116631741002724</v>
+        <v>0.003116631741002725</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001295833778610082</v>
+        <v>0.001337664927783448</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.006984194576053969</v>
+        <v>0.006739788878251938</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>643993</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>627327</v>
+        <v>627993</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>655628</v>
+        <v>657000</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9266590175261068</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9026788461992359</v>
+        <v>0.9036362396172273</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9434017720599518</v>
+        <v>0.9453753934550204</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1067</v>
@@ -2620,19 +2620,19 @@
         <v>692124</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>681932</v>
+        <v>681653</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>701181</v>
+        <v>700957</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9410533897421807</v>
+        <v>0.9410533897421809</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.927195122215754</v>
+        <v>0.9268169038699102</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9533673678818828</v>
+        <v>0.9530635722028553</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1677</v>
@@ -2641,19 +2641,19 @@
         <v>1336118</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1316892</v>
+        <v>1317542</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1351759</v>
+        <v>1352298</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9340600582553529</v>
+        <v>0.9340600582553532</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9206196226290985</v>
+        <v>0.92107401702881</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9449945415879606</v>
+        <v>0.945371472521103</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>12760</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7197</v>
+        <v>7523</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21100</v>
+        <v>21567</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0210093457723612</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01184998702940543</v>
+        <v>0.01238645666962116</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03474161010840938</v>
+        <v>0.03551055955896981</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -2766,19 +2766,19 @@
         <v>12954</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8276</v>
+        <v>8599</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18481</v>
+        <v>18733</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02134820192561008</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01363878098030697</v>
+        <v>0.01417146933911232</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03045738878251698</v>
+        <v>0.03087190533963151</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>43</v>
@@ -2787,19 +2787,19 @@
         <v>25714</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18689</v>
+        <v>18447</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>36040</v>
+        <v>35643</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02117869925265385</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01539287677911456</v>
+        <v>0.01519396810729992</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02968376959440978</v>
+        <v>0.02935702558675351</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>15361</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>8319</v>
+        <v>8652</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>23878</v>
+        <v>24277</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02529246760457768</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01369706241652439</v>
+        <v>0.01424618604927674</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03931585645118009</v>
+        <v>0.03997308537403774</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>11</v>
@@ -2837,19 +2837,19 @@
         <v>7303</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3636</v>
+        <v>3368</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12207</v>
+        <v>12681</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0120358259082887</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.005992645961351281</v>
+        <v>0.005550523657311872</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0201164590751426</v>
+        <v>0.0208986499454518</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>26</v>
@@ -2858,19 +2858,19 @@
         <v>22664</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>15013</v>
+        <v>14780</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>33087</v>
+        <v>31999</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.01866706509459191</v>
+        <v>0.01866706509459192</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01236561759913334</v>
+        <v>0.01217342063379905</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02725151149677838</v>
+        <v>0.02635561455485999</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>6806</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2875</v>
+        <v>2952</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14629</v>
+        <v>13573</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01120573280797564</v>
+        <v>0.01120573280797563</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.004733053293107007</v>
+        <v>0.004861317486486941</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02408811474025476</v>
+        <v>0.02234927777009029</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -2911,16 +2911,16 @@
         <v>475</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4976</v>
+        <v>5372</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002909778548786903</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0007824151274927893</v>
+        <v>0.0007823335780375655</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.008200941856110559</v>
+        <v>0.008853534364317286</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>10</v>
@@ -2929,19 +2929,19 @@
         <v>8571</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4337</v>
+        <v>4372</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16381</v>
+        <v>15553</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007059581962928462</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003571929319288077</v>
+        <v>0.003601240764068557</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0134918776060175</v>
+        <v>0.01281037555383492</v>
       </c>
     </row>
     <row r="35">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7839</v>
+        <v>6051</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.00296491542570504</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01290714650668392</v>
+        <v>0.009963757251836521</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2979,19 +2979,19 @@
         <v>2566</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6410</v>
+        <v>6233</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.004228920279395098</v>
+        <v>0.004228920279395099</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001173834699259181</v>
+        <v>0.001175138210583565</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01056413934724894</v>
+        <v>0.01027121137922244</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -3000,19 +3000,19 @@
         <v>4367</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1947</v>
+        <v>1806</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>9797</v>
+        <v>9828</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003596639592513941</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001604006900688861</v>
+        <v>0.001487776156748136</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.008068843509249348</v>
+        <v>0.008095050185870801</v>
       </c>
     </row>
     <row r="36">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4332</v>
+        <v>5097</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001407534399042945</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.007133457740915603</v>
+        <v>0.008392812717222234</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4807</v>
+        <v>3975</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0007040770563796836</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.003958975835892753</v>
+        <v>0.00327368796619201</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>569747</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>557212</v>
+        <v>556940</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>580755</v>
+        <v>579126</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9381200039903376</v>
+        <v>0.9381200039903375</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9174799530526057</v>
+        <v>0.9170322700807148</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9562441774582523</v>
+        <v>0.9535627094922764</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>953</v>
@@ -3113,19 +3113,19 @@
         <v>582205</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>573739</v>
+        <v>574174</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>588685</v>
+        <v>588948</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9594772733379193</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9455251759395075</v>
+        <v>0.9462424536353903</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9701554725278937</v>
+        <v>0.9705899997167585</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1574</v>
@@ -3134,19 +3134,19 @@
         <v>1151953</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1137749</v>
+        <v>1136308</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1163996</v>
+        <v>1164523</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.9487939370409322</v>
+        <v>0.948793937040932</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9370956910979638</v>
+        <v>0.9359086020152833</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9587130487872841</v>
+        <v>0.9591477685415767</v>
       </c>
     </row>
     <row r="38">
@@ -3238,19 +3238,19 @@
         <v>7595</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>4171</v>
+        <v>4038</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>13845</v>
+        <v>13052</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01868724159085756</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01026192984670768</v>
+        <v>0.009934949118773947</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03406616302092376</v>
+        <v>0.03211463281832926</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>27</v>
@@ -3259,19 +3259,19 @@
         <v>11466</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>7648</v>
+        <v>7484</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>16745</v>
+        <v>16141</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02615046012831627</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0174431021446315</v>
+        <v>0.01706729872528105</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03818960027320197</v>
+        <v>0.03681114227730016</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>38</v>
@@ -3280,19 +3280,19 @@
         <v>19061</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>13064</v>
+        <v>13398</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>25506</v>
+        <v>26822</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02256047748894371</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0154624417723815</v>
+        <v>0.01585744827093075</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.0301883428407148</v>
+        <v>0.03174669699220247</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>6680</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3211</v>
+        <v>2965</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12933</v>
+        <v>13058</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01643729707582586</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.007901345817355288</v>
+        <v>0.007296058216220734</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03182148349489448</v>
+        <v>0.03213062618364129</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>8</v>
@@ -3330,19 +3330,19 @@
         <v>4250</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1839</v>
+        <v>2086</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7958</v>
+        <v>8363</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.009692996032896629</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.004193872622465142</v>
+        <v>0.004756329035122681</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01814811290359359</v>
+        <v>0.01907352909649897</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>16</v>
@@ -3351,19 +3351,19 @@
         <v>10930</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6483</v>
+        <v>6682</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17646</v>
+        <v>17437</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0129371625459494</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.007673545402924723</v>
+        <v>0.007908437035522364</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02088520054924159</v>
+        <v>0.02063789480959781</v>
       </c>
     </row>
     <row r="41">
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5244</v>
+        <v>6509</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.002590879998620471</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01290404309210635</v>
+        <v>0.01601549580632371</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5003</v>
+        <v>3932</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00293068413749251</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01141030131153766</v>
+        <v>0.008967435573467214</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -3422,19 +3422,19 @@
         <v>2338</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6369</v>
+        <v>6551</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.002767230400580641</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.000725360641455649</v>
+        <v>0.0007279293289858087</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.007538749020124036</v>
+        <v>0.007754038025385114</v>
       </c>
     </row>
     <row r="42">
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2394</v>
+        <v>2948</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.001345772116141446</v>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.005459420775544125</v>
+        <v>0.006724131283686501</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -3488,16 +3488,16 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3068</v>
+        <v>2963</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.0006984242582098248</v>
+        <v>0.0006984242582098249</v>
       </c>
       <c r="V42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.003631771941707997</v>
+        <v>0.003506907723791625</v>
       </c>
     </row>
     <row r="43">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>4316</v>
+        <v>4055</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.002260078421666224</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01061969209094631</v>
+        <v>0.009977696602942421</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -3535,19 +3535,19 @@
         <v>1545</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>4344</v>
+        <v>4326</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.003522808370511799</v>
+        <v>0.0035228083705118</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0008815697089548202</v>
+        <v>0.0008743943428275466</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.009906986624492586</v>
+        <v>0.009865901681282265</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>4</v>
@@ -3556,19 +3556,19 @@
         <v>2463</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>6595</v>
+        <v>6177</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.002915405736940385</v>
+        <v>0.002915405736940386</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0007217557278400742</v>
+        <v>0.0007247388468283715</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.007805239483472367</v>
+        <v>0.007311460692535953</v>
       </c>
     </row>
     <row r="44">
@@ -3585,19 +3585,19 @@
         <v>390165</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>380998</v>
+        <v>382404</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>395920</v>
+        <v>396614</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9600245029130299</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9374663315817693</v>
+        <v>0.9409258367246951</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9741830540537344</v>
+        <v>0.9758903539984423</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>785</v>
@@ -3606,19 +3606,19 @@
         <v>419342</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>412396</v>
+        <v>412596</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>424781</v>
+        <v>424442</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9563572792146412</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9405166577868129</v>
+        <v>0.9409734654405104</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9687616320937921</v>
+        <v>0.9679892548300295</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1333</v>
@@ -3627,19 +3627,19 @@
         <v>809507</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>800055</v>
+        <v>799703</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>817937</v>
+        <v>817820</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.9581212995693761</v>
+        <v>0.9581212995693762</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9469333752014575</v>
+        <v>0.9465178541145376</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9680986650539318</v>
+        <v>0.9679605394730286</v>
       </c>
     </row>
     <row r="45">
@@ -3731,19 +3731,19 @@
         <v>2350</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>5836</v>
+        <v>5826</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007574916768163589</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001973266104973417</v>
+        <v>0.001927872640449037</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01881481677648175</v>
+        <v>0.01878265844347173</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>29</v>
@@ -3752,19 +3752,19 @@
         <v>12705</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8541</v>
+        <v>8707</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>18057</v>
+        <v>18148</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02738466101520886</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01840980972808633</v>
+        <v>0.01876752511571178</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0389212639202105</v>
+        <v>0.03911798580686369</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>33</v>
@@ -3773,19 +3773,19 @@
         <v>15054</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10441</v>
+        <v>10227</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>21427</v>
+        <v>20686</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01944684005226118</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01348769273722736</v>
+        <v>0.01321133948932312</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02767848937820022</v>
+        <v>0.02672201036175672</v>
       </c>
     </row>
     <row r="47">
@@ -3802,19 +3802,19 @@
         <v>7753</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3354</v>
+        <v>3658</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14070</v>
+        <v>14740</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.02499395385579128</v>
+        <v>0.02499395385579129</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01081097876965617</v>
+        <v>0.0117926299992994</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04535958787743735</v>
+        <v>0.04751902908956371</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3</v>
@@ -3823,19 +3823,19 @@
         <v>1875</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>5019</v>
+        <v>5053</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.004042025471549822</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001327949587416447</v>
+        <v>0.001333617740516601</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01081912206833541</v>
+        <v>0.01089081135243844</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>11</v>
@@ -3844,19 +3844,19 @@
         <v>9628</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>5317</v>
+        <v>4952</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>17600</v>
+        <v>17734</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01243752287265418</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006868097804719331</v>
+        <v>0.006396525394993379</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02273505313440287</v>
+        <v>0.02290759638319055</v>
       </c>
     </row>
     <row r="48">
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>2531</v>
+        <v>2341</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.0008416673790761439</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.005455514868912107</v>
+        <v>0.005045965471033013</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1588</v>
+        <v>1966</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.0005044088621492352</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.002050875884604677</v>
+        <v>0.002539972720634935</v>
       </c>
     </row>
     <row r="49">
@@ -4030,19 +4030,19 @@
         <v>300095</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>292569</v>
+        <v>293271</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>305043</v>
+        <v>304911</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.9674311293760451</v>
+        <v>0.9674311293760449</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9431700598566707</v>
+        <v>0.9454318305040723</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9833802502667269</v>
+        <v>0.9829544481341673</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>847</v>
@@ -4051,19 +4051,19 @@
         <v>448967</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>443183</v>
+        <v>442917</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>453554</v>
+        <v>453439</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.9677316461341651</v>
+        <v>0.9677316461341652</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.9552655041311096</v>
+        <v>0.9546927294222338</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.9776198207407295</v>
+        <v>0.9773718855785927</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>1293</v>
@@ -4072,19 +4072,19 @@
         <v>749063</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>740178</v>
+        <v>740945</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>756132</v>
+        <v>756193</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.9676112282129353</v>
+        <v>0.9676112282129354</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.9561339447553699</v>
+        <v>0.9571248847837512</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.9767437200579391</v>
+        <v>0.9768216078711491</v>
       </c>
     </row>
     <row r="52">
@@ -4176,19 +4176,19 @@
         <v>119264</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>96831</v>
+        <v>97749</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>146575</v>
+        <v>149659</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.03386302653573871</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.02749338888032912</v>
+        <v>0.0277540707250759</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.04161740956783815</v>
+        <v>0.04249297716424614</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>189</v>
@@ -4197,19 +4197,19 @@
         <v>125579</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>106411</v>
+        <v>105448</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>151674</v>
+        <v>148770</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.03368483498204049</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02854322494681235</v>
+        <v>0.02828474557801645</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.04068427844400415</v>
+        <v>0.03990549249431053</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>295</v>
@@ -4218,19 +4218,19 @@
         <v>244844</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>212478</v>
+        <v>213810</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>282054</v>
+        <v>280492</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.03377139790818488</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.02930724158845908</v>
+        <v>0.02949084839665234</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.03890384938032877</v>
+        <v>0.03868833713890615</v>
       </c>
     </row>
     <row r="54">
@@ -4247,19 +4247,19 @@
         <v>60309</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>44819</v>
+        <v>44640</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>77629</v>
+        <v>82753</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01712363876307875</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01272549472314462</v>
+        <v>0.01267479907429431</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.02204140648165157</v>
+        <v>0.02349631332888803</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>52</v>
@@ -4268,19 +4268,19 @@
         <v>37660</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>27952</v>
+        <v>28114</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>50742</v>
+        <v>51645</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.01010165577611301</v>
+        <v>0.01010165577611302</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.007497842465579043</v>
+        <v>0.007541077388017898</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.0136108923756156</v>
+        <v>0.01385309500157744</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>104</v>
@@ -4289,19 +4289,19 @@
         <v>97968</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>80427</v>
+        <v>79834</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>119907</v>
+        <v>119039</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.01351283538632795</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01109330046806389</v>
+        <v>0.01101160568401272</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01653879756404172</v>
+        <v>0.01641916424784856</v>
       </c>
     </row>
     <row r="55">
@@ -4318,19 +4318,19 @@
         <v>42606</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>28576</v>
+        <v>28999</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>64423</v>
+        <v>62198</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.01209726462553055</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.008113522734029804</v>
+        <v>0.008233774452440884</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.0182918074504673</v>
+        <v>0.01766016724044937</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>31</v>
@@ -4339,19 +4339,19 @@
         <v>25944</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>17677</v>
+        <v>17216</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>37860</v>
+        <v>37460</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.006958968628912842</v>
+        <v>0.006958968628912843</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.004741705413575634</v>
+        <v>0.004617860481097255</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.01015542746501573</v>
+        <v>0.01004805443916405</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>61</v>
@@ -4360,19 +4360,19 @@
         <v>68550</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>53718</v>
+        <v>50761</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>90389</v>
+        <v>89719</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.009455079850977367</v>
+        <v>0.00945507985097737</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.007409341588647454</v>
+        <v>0.007001526036621513</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.01246733929657033</v>
+        <v>0.0123749508699859</v>
       </c>
     </row>
     <row r="56">
@@ -4389,19 +4389,19 @@
         <v>44793</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>29217</v>
+        <v>28709</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>68294</v>
+        <v>65218</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.01271832407804138</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.008295649945633509</v>
+        <v>0.008151494393740929</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.0193907517291727</v>
+        <v>0.0185175710573716</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>24</v>
@@ -4410,19 +4410,19 @@
         <v>26285</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>16893</v>
+        <v>16753</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>41594</v>
+        <v>41507</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.007050452020421275</v>
+        <v>0.007050452020421276</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.004531260659316507</v>
+        <v>0.004493854878986525</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01115687047080448</v>
+        <v>0.01113376340782975</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>53</v>
@@ -4431,19 +4431,19 @@
         <v>71078</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>51750</v>
+        <v>51410</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>98443</v>
+        <v>95871</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.00980382377198331</v>
+        <v>0.009803823771983314</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.00713787556813194</v>
+        <v>0.007090947739515093</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01357824149332546</v>
+        <v>0.01322351697377141</v>
       </c>
     </row>
     <row r="57">
@@ -4460,19 +4460,19 @@
         <v>32294</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>17982</v>
+        <v>18127</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>57094</v>
+        <v>57997</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.009169440251695705</v>
+        <v>0.009169440251695703</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.005105800481498174</v>
+        <v>0.005146932037994727</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.01621088949338055</v>
+        <v>0.01646712698990959</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>17</v>
@@ -4481,19 +4481,19 @@
         <v>19723</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>11153</v>
+        <v>11513</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>33461</v>
+        <v>34094</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.005290396426473476</v>
+        <v>0.005290396426473477</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.002991572811419531</v>
+        <v>0.003088294201630887</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.008975483760887401</v>
+        <v>0.009145293971909397</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>32</v>
@@ -4502,19 +4502,19 @@
         <v>52017</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>33662</v>
+        <v>34730</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>77879</v>
+        <v>77228</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.007174780827331435</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.004643007347289781</v>
+        <v>0.004790352013100129</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.01074182551076692</v>
+        <v>0.01065211906708205</v>
       </c>
     </row>
     <row r="58">
@@ -4531,19 +4531,19 @@
         <v>3222696</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>3177918</v>
+        <v>3179455</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>3262551</v>
+        <v>3262173</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.915028305745915</v>
+        <v>0.9150283057459149</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.9023144996264721</v>
+        <v>0.9027507399969936</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.9263445806748076</v>
+        <v>0.9262371414015533</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>5041</v>
@@ -4552,19 +4552,19 @@
         <v>3492880</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>3459945</v>
+        <v>3457653</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>3520586</v>
+        <v>3518713</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.9369136921660387</v>
+        <v>0.9369136921660389</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.9280793603029973</v>
+        <v>0.9274647010723142</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.9443455905203668</v>
+        <v>0.9438430141930573</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>8175</v>
@@ -4573,19 +4573,19 @@
         <v>6715575</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>6663150</v>
+        <v>6665047</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>6763408</v>
+        <v>6771398</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.9262820822551951</v>
+        <v>0.9262820822551953</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.919051066383454</v>
+        <v>0.9193127436476685</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.9328797280382606</v>
+        <v>0.9339818673151089</v>
       </c>
     </row>
     <row r="59">
